--- a/Data_preparation/datasets/final_data/AeroVironment_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/AeroVironment_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,63 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>000660 KS</t>
-  </si>
-  <si>
-    <t>NXPI</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
-  </si>
-  <si>
-    <t>STMMI IM</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>4755 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>SPT</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>MRVL</t>
   </si>
 </sst>
 </file>
@@ -709,22 +652,22 @@
         <v>42035</v>
       </c>
       <c r="D2">
-        <v>551.1687846760174</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="E2">
-        <v>607.9558715820312</v>
+        <v>27.40999984741211</v>
       </c>
       <c r="F2">
-        <v>621.3175390893286</v>
+        <v>28.5</v>
       </c>
       <c r="G2">
-        <v>532.7964918534834</v>
+        <v>25.43000030517578</v>
       </c>
       <c r="H2">
-        <v>1333460157</v>
+        <v>49932207</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>596806807</v>
@@ -834,22 +777,22 @@
         <v>42124</v>
       </c>
       <c r="D3">
-        <v>40133.52395731409</v>
+        <v>25.59000015258789</v>
       </c>
       <c r="E3">
-        <v>44438.203125</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="F3">
-        <v>44612.12955601761</v>
+        <v>27.06999969482422</v>
       </c>
       <c r="G3">
-        <v>38611.66768590998</v>
+        <v>25.01000022888184</v>
       </c>
       <c r="H3">
-        <v>690412123</v>
+        <v>49932207</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>597270426</v>
@@ -959,22 +902,22 @@
         <v>42217</v>
       </c>
       <c r="D4">
-        <v>86.11116037452626</v>
+        <v>26.10000038146973</v>
       </c>
       <c r="E4">
-        <v>75.56037902832031</v>
+        <v>24.04999923706055</v>
       </c>
       <c r="F4">
-        <v>88.78902372950401</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>64.31335429944554</v>
+        <v>22</v>
       </c>
       <c r="H4">
-        <v>252114595</v>
+        <v>49932207</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>608476269</v>
@@ -1072,22 +1015,22 @@
         <v>42308</v>
       </c>
       <c r="D5">
-        <v>1969.340224847561</v>
+        <v>23.03000068664551</v>
       </c>
       <c r="E5">
-        <v>1682.144775390625</v>
+        <v>25.57999992370605</v>
       </c>
       <c r="F5">
-        <v>2069.630699261094</v>
+        <v>26.20999908447266</v>
       </c>
       <c r="G5">
-        <v>1654.792827823298</v>
+        <v>21.86000061035156</v>
       </c>
       <c r="H5">
-        <v>52985470</v>
+        <v>49932207</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>543048721</v>
@@ -1185,22 +1128,22 @@
         <v>42399</v>
       </c>
       <c r="D6">
-        <v>5.256496433023165</v>
+        <v>25.26000022888184</v>
       </c>
       <c r="E6">
-        <v>4.608673572540283</v>
+        <v>24.8799991607666</v>
       </c>
       <c r="F6">
-        <v>5.260844337637172</v>
+        <v>26.42000007629395</v>
       </c>
       <c r="G6">
-        <v>3.940850599616372</v>
+        <v>23.1299991607666</v>
       </c>
       <c r="H6">
-        <v>892033602</v>
+        <v>49932207</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>595266360</v>
@@ -1313,22 +1256,22 @@
         <v>42490</v>
       </c>
       <c r="D7">
-        <v>7.405064369291272</v>
+        <v>28.86000061035156</v>
       </c>
       <c r="E7">
-        <v>8.19680118560791</v>
+        <v>28.80999946594238</v>
       </c>
       <c r="F7">
-        <v>8.252687967757092</v>
+        <v>29.39999961853028</v>
       </c>
       <c r="G7">
-        <v>7.405064369291272</v>
+        <v>27.11000061035156</v>
       </c>
       <c r="H7">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>674552355</v>
@@ -1441,22 +1384,22 @@
         <v>42581</v>
       </c>
       <c r="D8">
-        <v>24792.26188512731</v>
+        <v>28.44000053405762</v>
       </c>
       <c r="E8">
-        <v>25598.12890625</v>
+        <v>24.73999977111816</v>
       </c>
       <c r="F8">
-        <v>26767.42615258488</v>
+        <v>30.07999992370605</v>
       </c>
       <c r="G8">
-        <v>23970.59354986497</v>
+        <v>23.85000038146973</v>
       </c>
       <c r="H8">
-        <v>5876745450</v>
+        <v>49932207</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>662123322</v>
@@ -1557,22 +1500,22 @@
         <v>42672</v>
       </c>
       <c r="D9">
-        <v>1179.321785622455</v>
+        <v>24.1200008392334</v>
       </c>
       <c r="E9">
-        <v>1093.526489257812</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="F9">
-        <v>1189.985607769472</v>
+        <v>28.79999923706055</v>
       </c>
       <c r="G9">
-        <v>1081.408509545292</v>
+        <v>23.39999961853028</v>
       </c>
       <c r="H9">
-        <v>2165034529</v>
+        <v>49932207</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>554050183</v>
@@ -1673,22 +1616,22 @@
         <v>42763</v>
       </c>
       <c r="D10">
-        <v>31724.14752190914</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="E10">
-        <v>30841.583984375</v>
+        <v>27.02000045776367</v>
       </c>
       <c r="F10">
-        <v>31820.42718054923</v>
+        <v>27.46999931335449</v>
       </c>
       <c r="G10">
-        <v>29750.41451978733</v>
+        <v>25.52000045776367</v>
       </c>
       <c r="H10">
-        <v>5876745450</v>
+        <v>49932207</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>607155336</v>
@@ -1789,22 +1732,22 @@
         <v>42855</v>
       </c>
       <c r="D11">
-        <v>10.96160405494972</v>
+        <v>28.6299991607666</v>
       </c>
       <c r="E11">
-        <v>11.86961078643799</v>
+        <v>31.04000091552734</v>
       </c>
       <c r="F11">
-        <v>12.02874601441194</v>
+        <v>31.65999984741211</v>
       </c>
       <c r="G11">
-        <v>10.91479941859429</v>
+        <v>28.1299991607666</v>
       </c>
       <c r="H11">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>670119264</v>
@@ -1917,22 +1860,22 @@
         <v>42945</v>
       </c>
       <c r="D12">
-        <v>16.93994119323039</v>
+        <v>37.75</v>
       </c>
       <c r="E12">
-        <v>16.7945613861084</v>
+        <v>49.02000045776367</v>
       </c>
       <c r="F12">
-        <v>17.21173895778688</v>
+        <v>49.18000030517578</v>
       </c>
       <c r="G12">
-        <v>16.42162973784869</v>
+        <v>36.70999908447266</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>49932207</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>895804140</v>
@@ -2033,22 +1976,22 @@
         <v>43036</v>
       </c>
       <c r="D13">
-        <v>10.61763089513864</v>
+        <v>51.52000045776367</v>
       </c>
       <c r="E13">
-        <v>13.90807914733887</v>
+        <v>45.58000183105469</v>
       </c>
       <c r="F13">
-        <v>15.02750964917292</v>
+        <v>51.72000122070312</v>
       </c>
       <c r="G13">
-        <v>10.51586472115866</v>
+        <v>41.52999877929688</v>
       </c>
       <c r="H13">
-        <v>3006208000</v>
+        <v>49932207</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1224914614</v>
@@ -2149,22 +2092,22 @@
         <v>43127</v>
       </c>
       <c r="D14">
-        <v>69.44000244140625</v>
+        <v>51.25</v>
       </c>
       <c r="E14">
-        <v>68</v>
+        <v>49.72000122070312</v>
       </c>
       <c r="F14">
-        <v>69.77999877929688</v>
+        <v>53.11000061035156</v>
       </c>
       <c r="G14">
-        <v>61.59999847412109</v>
+        <v>45.59999847412109</v>
       </c>
       <c r="H14">
-        <v>134598631</v>
+        <v>49932207</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1269177577</v>
@@ -2265,22 +2208,22 @@
         <v>43220</v>
       </c>
       <c r="D15">
-        <v>79.26000213623047</v>
+        <v>54.27000045776367</v>
       </c>
       <c r="E15">
-        <v>92.62000274658205</v>
+        <v>57.86000061035156</v>
       </c>
       <c r="F15">
-        <v>92.72000122070312</v>
+        <v>62.20000076293945</v>
       </c>
       <c r="G15">
-        <v>79.26000213623047</v>
+        <v>49.68999862670898</v>
       </c>
       <c r="H15">
-        <v>134598631</v>
+        <v>49932207</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1302876237</v>
@@ -2390,22 +2333,22 @@
         <v>43309</v>
       </c>
       <c r="D16">
-        <v>18.24110446084033</v>
+        <v>73.81999969482422</v>
       </c>
       <c r="E16">
-        <v>17.57744789123535</v>
+        <v>87.95999908447266</v>
       </c>
       <c r="F16">
-        <v>18.86683867622506</v>
+        <v>88.45999908447266</v>
       </c>
       <c r="G16">
-        <v>17.3878306951633</v>
+        <v>73.5</v>
       </c>
       <c r="H16">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>1723422036</v>
@@ -2503,22 +2446,22 @@
         <v>43400</v>
       </c>
       <c r="D17">
-        <v>79.01999664306641</v>
+        <v>91</v>
       </c>
       <c r="E17">
-        <v>71.94000244140625</v>
+        <v>76.59999847412109</v>
       </c>
       <c r="F17">
-        <v>83.72000122070312</v>
+        <v>103.4599990844727</v>
       </c>
       <c r="G17">
-        <v>61.27999877929688</v>
+        <v>75.26999664306641</v>
       </c>
       <c r="H17">
-        <v>134598631</v>
+        <v>49932207</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2152559539</v>
@@ -2628,22 +2571,22 @@
         <v>43491</v>
       </c>
       <c r="D18">
-        <v>3306.126844029623</v>
+        <v>77.69999694824219</v>
       </c>
       <c r="E18">
-        <v>3208.68310546875</v>
+        <v>79.66999816894531</v>
       </c>
       <c r="F18">
-        <v>3404.440615970504</v>
+        <v>83.5</v>
       </c>
       <c r="G18">
-        <v>3125.159900988001</v>
+        <v>73.72000122070312</v>
       </c>
       <c r="H18">
-        <v>933160187</v>
+        <v>49932207</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1883162955</v>
@@ -2741,22 +2684,22 @@
         <v>43585</v>
       </c>
       <c r="D19">
-        <v>1214.796060301659</v>
+        <v>68.81999969482422</v>
       </c>
       <c r="E19">
-        <v>1116.432006835938</v>
+        <v>64.75</v>
       </c>
       <c r="F19">
-        <v>1226.599746717546</v>
+        <v>70.84999847412109</v>
       </c>
       <c r="G19">
-        <v>1026.920718182131</v>
+        <v>62.5</v>
       </c>
       <c r="H19">
-        <v>2165034529</v>
+        <v>49932207</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>1640804041</v>
@@ -2866,22 +2809,22 @@
         <v>43673</v>
       </c>
       <c r="D20">
-        <v>70120.86004118217</v>
+        <v>54.84999847412109</v>
       </c>
       <c r="E20">
-        <v>72076.421875</v>
+        <v>51.52999877929688</v>
       </c>
       <c r="F20">
-        <v>73287.00777212532</v>
+        <v>55.33000183105469</v>
       </c>
       <c r="G20">
-        <v>66582.22434189277</v>
+        <v>48.61000061035156</v>
       </c>
       <c r="H20">
-        <v>690412123</v>
+        <v>49932207</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>1298165495</v>
@@ -2994,22 +2937,22 @@
         <v>43764</v>
       </c>
       <c r="D21">
-        <v>777.4872209821428</v>
+        <v>58.25</v>
       </c>
       <c r="E21">
-        <v>800.3544921875</v>
+        <v>61.34000015258789</v>
       </c>
       <c r="F21">
-        <v>825.9658359374999</v>
+        <v>63.40000152587891</v>
       </c>
       <c r="G21">
-        <v>771.9990758928571</v>
+        <v>58.02999877929688</v>
       </c>
       <c r="H21">
-        <v>1333460157</v>
+        <v>49932207</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>1361852084</v>
@@ -3122,22 +3065,22 @@
         <v>43855</v>
       </c>
       <c r="D22">
-        <v>30.25335421706691</v>
+        <v>66.45999908447266</v>
       </c>
       <c r="E22">
-        <v>26.98272132873535</v>
+        <v>51.38999938964844</v>
       </c>
       <c r="F22">
-        <v>33.44222253083761</v>
+        <v>72.69999694824219</v>
       </c>
       <c r="G22">
-        <v>26.94183904145492</v>
+        <v>50.52000045776367</v>
       </c>
       <c r="H22">
-        <v>1853869000</v>
+        <v>49932207</v>
       </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>1629682545</v>
@@ -3238,22 +3181,22 @@
         <v>43951</v>
       </c>
       <c r="D23">
-        <v>61.31663254339616</v>
+        <v>58.75</v>
       </c>
       <c r="E23">
-        <v>65.48236083984375</v>
+        <v>70.83000183105469</v>
       </c>
       <c r="F23">
-        <v>65.48236083984375</v>
+        <v>71.06999969482422</v>
       </c>
       <c r="G23">
-        <v>58.10097700564869</v>
+        <v>57.4900016784668</v>
       </c>
       <c r="H23">
-        <v>229140423</v>
+        <v>49932207</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>1445945268</v>
@@ -3366,22 +3309,22 @@
         <v>44044</v>
       </c>
       <c r="D24">
-        <v>29.18000030517578</v>
+        <v>77.05999755859375</v>
       </c>
       <c r="E24">
-        <v>38.75</v>
+        <v>76.38999938964844</v>
       </c>
       <c r="F24">
-        <v>38.81000137329102</v>
+        <v>87</v>
       </c>
       <c r="G24">
-        <v>25.61000061035156</v>
+        <v>75.19999694824219</v>
       </c>
       <c r="H24">
-        <v>52645842</v>
+        <v>49932207</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>1842068733</v>
@@ -3494,22 +3437,22 @@
         <v>44135</v>
       </c>
       <c r="D25">
-        <v>976.7760905237012</v>
+        <v>76.90000152587891</v>
       </c>
       <c r="E25">
-        <v>1047.47607421875</v>
+        <v>85.38999938964844</v>
       </c>
       <c r="F25">
-        <v>1075.383962519427</v>
+        <v>89.33999633789062</v>
       </c>
       <c r="G25">
-        <v>963.7524093167184</v>
+        <v>75.12999725341797</v>
       </c>
       <c r="H25">
-        <v>1333460157</v>
+        <v>49932207</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>1840605799</v>
@@ -3622,22 +3565,22 @@
         <v>44226</v>
       </c>
       <c r="D26">
-        <v>20.59512949283477</v>
+        <v>120.0400009155273</v>
       </c>
       <c r="E26">
-        <v>20.44285583496094</v>
+        <v>110.0800018310547</v>
       </c>
       <c r="F26">
-        <v>21.31843408739549</v>
+        <v>142.2899932861328</v>
       </c>
       <c r="G26">
-        <v>19.26272736237256</v>
+        <v>107.7300033569336</v>
       </c>
       <c r="H26">
-        <v>3006208000</v>
+        <v>49932207</v>
       </c>
       <c r="I26" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>2766413785</v>
@@ -3738,22 +3681,22 @@
         <v>44316</v>
       </c>
       <c r="D27">
-        <v>33.58668313750795</v>
+        <v>110.3499984741211</v>
       </c>
       <c r="E27">
-        <v>37.19651412963867</v>
+        <v>109.629997253418</v>
       </c>
       <c r="F27">
-        <v>37.54030790440957</v>
+        <v>111.7200012207031</v>
       </c>
       <c r="G27">
-        <v>31.38067915433425</v>
+        <v>98.18000030517578</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>2723543649</v>
@@ -3866,22 +3809,22 @@
         <v>44408</v>
       </c>
       <c r="D28">
-        <v>40.16067314860691</v>
+        <v>101.8499984741211</v>
       </c>
       <c r="E28">
-        <v>42.54341125488281</v>
+        <v>102.3600006103516</v>
       </c>
       <c r="F28">
-        <v>43.23517523141464</v>
+        <v>105.9800033569336</v>
       </c>
       <c r="G28">
-        <v>39.97812595039599</v>
+        <v>96</v>
       </c>
       <c r="H28">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>2505037198</v>
@@ -3982,22 +3925,22 @@
         <v>44499</v>
       </c>
       <c r="D29">
-        <v>154.6699981689453</v>
+        <v>89.75</v>
       </c>
       <c r="E29">
-        <v>144.8399963378906</v>
+        <v>80.76000213623047</v>
       </c>
       <c r="F29">
-        <v>156.6499938964844</v>
+        <v>96.12000274658205</v>
       </c>
       <c r="G29">
-        <v>135.2899932861328</v>
+        <v>79.70999908447266</v>
       </c>
       <c r="H29">
-        <v>168262866</v>
+        <v>49932207</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2210947775</v>
@@ -4110,22 +4053,22 @@
         <v>44590</v>
       </c>
       <c r="D30">
-        <v>451.2594581119863</v>
+        <v>57.34000015258789</v>
       </c>
       <c r="E30">
-        <v>436.4562377929687</v>
+        <v>71.05000305175781</v>
       </c>
       <c r="F30">
-        <v>464.6301087227118</v>
+        <v>71.48000335693359</v>
       </c>
       <c r="G30">
-        <v>416.8777851129778</v>
+        <v>55.34000015258789</v>
       </c>
       <c r="H30">
-        <v>134011000</v>
+        <v>49932207</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>1334454864</v>
@@ -4229,22 +4172,22 @@
         <v>44681</v>
       </c>
       <c r="D31">
-        <v>22.09336579313935</v>
+        <v>80.77999877929688</v>
       </c>
       <c r="E31">
-        <v>23.29409217834473</v>
+        <v>91.95999908447266</v>
       </c>
       <c r="F31">
-        <v>23.81440663990654</v>
+        <v>97.1999969482422</v>
       </c>
       <c r="G31">
-        <v>21.77317239577843</v>
+        <v>72.52999877929688</v>
       </c>
       <c r="H31">
-        <v>3006208000</v>
+        <v>49932207</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>2001119227</v>
@@ -4357,22 +4300,22 @@
         <v>44772</v>
       </c>
       <c r="D32">
-        <v>98.22187949379044</v>
+        <v>85.87000274658203</v>
       </c>
       <c r="E32">
-        <v>92.15927124023438</v>
+        <v>88.65000152587891</v>
       </c>
       <c r="F32">
-        <v>105.3627124338343</v>
+        <v>106.5400009155273</v>
       </c>
       <c r="G32">
-        <v>91.5917822844234</v>
+        <v>85.36000061035156</v>
       </c>
       <c r="H32">
-        <v>229140423</v>
+        <v>49932207</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>2161397683</v>
@@ -4473,22 +4416,22 @@
         <v>44863</v>
       </c>
       <c r="D33">
-        <v>467.0638726647999</v>
+        <v>93.33999633789062</v>
       </c>
       <c r="E33">
-        <v>706.88134765625</v>
+        <v>91.98999786376952</v>
       </c>
       <c r="F33">
-        <v>733.9575141875428</v>
+        <v>94.31999969482422</v>
       </c>
       <c r="G33">
-        <v>462.2288429270691</v>
+        <v>81.44999694824219</v>
       </c>
       <c r="H33">
-        <v>134011000</v>
+        <v>49932207</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>2252517564</v>
@@ -4589,22 +4532,22 @@
         <v>44954</v>
       </c>
       <c r="D34">
-        <v>22.30344638703474</v>
+        <v>89.09999847412109</v>
       </c>
       <c r="E34">
-        <v>24.03016471862793</v>
+        <v>85.73999786376953</v>
       </c>
       <c r="F34">
-        <v>24.34992709026606</v>
+        <v>95.5</v>
       </c>
       <c r="G34">
-        <v>22.30344638703474</v>
+        <v>83.55000305175781</v>
       </c>
       <c r="H34">
-        <v>118401578</v>
+        <v>49932207</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>2228938198</v>
@@ -4705,22 +4648,22 @@
         <v>45046</v>
       </c>
       <c r="D35">
-        <v>32.23731758159914</v>
+        <v>101.0699996948242</v>
       </c>
       <c r="E35">
-        <v>31.26864814758301</v>
+        <v>93.41000366210938</v>
       </c>
       <c r="F35">
-        <v>35.13364081518687</v>
+        <v>112.3899993896484</v>
       </c>
       <c r="G35">
-        <v>30.83274801082995</v>
+        <v>88.23999786376953</v>
       </c>
       <c r="H35">
-        <v>219937482</v>
+        <v>49932207</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>2543834677</v>
@@ -4821,22 +4764,22 @@
         <v>45136</v>
       </c>
       <c r="D36">
-        <v>30.92623077469029</v>
+        <v>95.18000030517578</v>
       </c>
       <c r="E36">
-        <v>33.08615875244141</v>
+        <v>97.02999877929688</v>
       </c>
       <c r="F36">
-        <v>34.90245969667931</v>
+        <v>99.51999664306641</v>
       </c>
       <c r="G36">
-        <v>29.20810684276305</v>
+        <v>91.25</v>
       </c>
       <c r="H36">
-        <v>1853869000</v>
+        <v>49932207</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2491180755</v>
@@ -4937,22 +4880,22 @@
         <v>45227</v>
       </c>
       <c r="D37">
-        <v>2693.511705022848</v>
+        <v>115.4700012207031</v>
       </c>
       <c r="E37">
-        <v>2557.436767578125</v>
+        <v>137.6100006103516</v>
       </c>
       <c r="F37">
-        <v>2886.525800689121</v>
+        <v>139.8800048828125</v>
       </c>
       <c r="G37">
-        <v>2506.288032226562</v>
+        <v>114.8600006103516</v>
       </c>
       <c r="H37">
-        <v>175134528</v>
+        <v>49932207</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>2995269829</v>
@@ -5053,22 +4996,22 @@
         <v>45318</v>
       </c>
       <c r="D38">
-        <v>20.3700008392334</v>
+        <v>121.9800033569336</v>
       </c>
       <c r="E38">
-        <v>21.20000076293945</v>
+        <v>126.7900009155273</v>
       </c>
       <c r="F38">
-        <v>24.60000038146973</v>
+        <v>128.5</v>
       </c>
       <c r="G38">
-        <v>19.36000061035156</v>
+        <v>119.4700012207031</v>
       </c>
       <c r="H38">
-        <v>134598631</v>
+        <v>49932207</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>3435295710</v>
@@ -5169,22 +5112,22 @@
         <v>45412</v>
       </c>
       <c r="D39">
-        <v>4501.268917429742</v>
+        <v>159.1699981689453</v>
       </c>
       <c r="E39">
-        <v>4303.6474609375</v>
+        <v>202.1499938964844</v>
       </c>
       <c r="F39">
-        <v>4645.082551609741</v>
+        <v>205.2799987792969</v>
       </c>
       <c r="G39">
-        <v>4257.666230961582</v>
+        <v>157.1799926757812</v>
       </c>
       <c r="H39">
-        <v>933160187</v>
+        <v>49932207</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>4495808936</v>
@@ -5285,22 +5228,22 @@
         <v>45500</v>
       </c>
       <c r="D40">
-        <v>19.03499984741211</v>
+        <v>179.5899963378906</v>
       </c>
       <c r="E40">
-        <v>17.19000053405762</v>
+        <v>203.759994506836</v>
       </c>
       <c r="F40">
-        <v>19.03499984741211</v>
+        <v>211.4400024414062</v>
       </c>
       <c r="G40">
-        <v>16.34000015258789</v>
+        <v>152.8800048828125</v>
       </c>
       <c r="H40">
-        <v>134598631</v>
+        <v>49932207</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>4890227893</v>
@@ -5413,22 +5356,22 @@
         <v>45591</v>
       </c>
       <c r="D41">
-        <v>1113.488531545431</v>
+        <v>217.1300048828125</v>
       </c>
       <c r="E41">
-        <v>1172.61181640625</v>
+        <v>194.5</v>
       </c>
       <c r="F41">
-        <v>1290.858386127889</v>
+        <v>236.6000061035156</v>
       </c>
       <c r="G41">
-        <v>1098.707710330226</v>
+        <v>189.259994506836</v>
       </c>
       <c r="H41">
-        <v>134011000</v>
+        <v>49932207</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>6230712469</v>
@@ -5541,22 +5484,22 @@
         <v>45682</v>
       </c>
       <c r="D42">
-        <v>2139.289278928284</v>
+        <v>174.8300018310547</v>
       </c>
       <c r="E42">
-        <v>2108.455322265625</v>
+        <v>149.6199951171875</v>
       </c>
       <c r="F42">
-        <v>2273.881946900208</v>
+        <v>188.7899932861328</v>
       </c>
       <c r="G42">
-        <v>1939.113274562768</v>
+        <v>145.9700012207031</v>
       </c>
       <c r="H42">
-        <v>175134528</v>
+        <v>49932207</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>5086939452</v>
@@ -5657,22 +5600,22 @@
         <v>45777</v>
       </c>
       <c r="D43">
-        <v>32.8338091994006</v>
+        <v>153.1199951171875</v>
       </c>
       <c r="E43">
-        <v>33.02415084838867</v>
+        <v>178.0299987792969</v>
       </c>
       <c r="F43">
-        <v>35.02272908660098</v>
+        <v>180.7200012207031</v>
       </c>
       <c r="G43">
-        <v>31.64417843130638</v>
+        <v>150.2899932861328</v>
       </c>
       <c r="H43">
-        <v>3006208000</v>
+        <v>49932207</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>4275718940</v>
@@ -5785,22 +5728,22 @@
         <v>45871</v>
       </c>
       <c r="D44">
-        <v>77.01900468823257</v>
+        <v>259.6099853515625</v>
       </c>
       <c r="E44">
-        <v>62.82839965820312</v>
+        <v>241.3500061035156</v>
       </c>
       <c r="F44">
-        <v>80.00702415624012</v>
+        <v>276.5</v>
       </c>
       <c r="G44">
-        <v>62.57856507602716</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="H44">
-        <v>862100000</v>
+        <v>49932207</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>11883353543</v>
